--- a/biology/Médecine/Adolf_Wallenberg/Adolf_Wallenberg.xlsx
+++ b/biology/Médecine/Adolf_Wallenberg/Adolf_Wallenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Wallenberg, né le 10 novembre 1862 à Stargard et décédé le 10 avril 1949 près de Chicago, est un médecin interniste et neurologue juif allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natif de Stargard près de Danzig en Poméranie, il était le fils du médecin de district Samuel Wallenberg et petit-fils de rabbin. Il n'est âgé que de six ans lorsqu'il perd son père. Avec ses trois frères, il reçoit une solide éducation universitaire mais aussi musicale : il jouera du violon, en trio avec ses frères Georg (violoncelle), futur mathématicien et Theodor (piano) qui deviendra ophtalmologiste et plus tard avec son ami Heinrich Lissauer de Danzig.
 Il étudie la médecine à l'université de Heidelberg où il reçoit l'enseignement de Wilhelm Erb et à l'université de Leipzig où il est l'étudiant d'Adolf Strümpell et de Carl Weigert. C'est à Leipzig qu'il obtient son doctorat en 1886, avec une thèse consacrée à la poliomyélite. De 1886 à 1888 il est assistant à l'hôpital de Danzig, et s'installe en pratique privée dans cette ville. À cette époque, son collègue Max Nonne dira de lui qu'il était « un homme d'une rare modestie, chaleureux et serviable à un point inusité ». De 1907 à 1928 il est directeur du département de médecine interne de cet hôpital, et devient professeur titulaire en 1910.
@@ -549,7 +563,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Wallenberg (synonyme : syndrome de la fossette latérale du bulbe) est un complexe de symptômes et de signes cliniques résultant d'une occlusion de l'artère cérébelleuse postéro-inférieure causant une ischémie de la portion latérale du bulbe rachidien. Le syndrome comprend une atteinte de la voie spino-thalamique causant une thermo-analgésie contre-latérale, du noyau ambigu causant une raucité de la voix, des voies sympathiques causant un Claude-Bernard-Horner ipsilatéral, du noyau trijumeau causant une hypoesthésie du visage ipsilatéral, du cervelet causant une ataxie cérébelleuse et du noyau du nerf vestibulaire causant des vertiges.
 </t>
